--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Informática\Horario - Informática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF708A23-16B8-4B0A-B75C-F5E539DB8CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9127C338-7423-4B6B-BCBD-FE04FBD66CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="47">
   <si>
     <t>Lunes</t>
   </si>
@@ -133,6 +133,39 @@
   </si>
   <si>
     <t>Comentarios de lo sucedido en el transcurso de la semana</t>
+  </si>
+  <si>
+    <t>10:00 - 1:00 pm</t>
+  </si>
+  <si>
+    <t>Lab. Informática</t>
+  </si>
+  <si>
+    <t>Primero que todo, quiero comentar que cometí un error al hacer la primera versión del horario, ya que no tuve en cuenta la clase de laboratorio de informática los días viernes, cosa que voy a corregir junto a los cambios que tuvo mi horario durante la semana, ya sea por imprevistos, retrasos y demás factores que incidieron directamente en la modificación del mismo. El lunes, me llegó una notificación de que mi cédula estaba lista para ser entregada, por lo cual tuve que ocupar toda la mañana en ello y aplazar un poco las actividades de la mañana, los demás días transcurrieron con relativa normalidad horaria hasta el fin de semana, el cual dediqué varias horas a estudiar para un parcial que tengo la próxima semana y terminar la primera práctica de laboratorio. Finalmente, el horario que realmente tuve esta semana que está a punto de terminar, se puede visualizar en la parte derecha.</t>
+  </si>
+  <si>
+    <t>8:00 - 12:00 am</t>
+  </si>
+  <si>
+    <t>Reclamar mi cédula</t>
+  </si>
+  <si>
+    <t>2:00 - 5:00 pm</t>
+  </si>
+  <si>
+    <t>6:00 - 8-00 pm</t>
+  </si>
+  <si>
+    <t>Práctica 1 Lab. Informática</t>
+  </si>
+  <si>
+    <t>9:00 - 10:00 PM</t>
+  </si>
+  <si>
+    <t>Modificaciones a mi horario</t>
+  </si>
+  <si>
+    <t>Repaso de Cálculo y Álgebra</t>
   </si>
 </sst>
 </file>
@@ -195,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -238,11 +271,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,9 +316,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,18 +336,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AB38"/>
+  <dimension ref="A2:AQ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,25 +672,39 @@
     <col min="12" max="12" width="14.21875" customWidth="1"/>
     <col min="13" max="13" width="15.5546875" customWidth="1"/>
     <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="30" max="30" width="14.77734375" customWidth="1"/>
+    <col min="31" max="31" width="17.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" customWidth="1"/>
+    <col min="33" max="33" width="15.5546875" customWidth="1"/>
+    <col min="34" max="34" width="14.77734375" customWidth="1"/>
+    <col min="35" max="35" width="13.5546875" customWidth="1"/>
+    <col min="36" max="36" width="15.21875" customWidth="1"/>
+    <col min="37" max="37" width="13.5546875" customWidth="1"/>
+    <col min="38" max="38" width="14.109375" customWidth="1"/>
+    <col min="39" max="39" width="13.6640625" customWidth="1"/>
+    <col min="40" max="40" width="15.33203125" customWidth="1"/>
+    <col min="41" max="41" width="12.88671875" customWidth="1"/>
+    <col min="42" max="42" width="14.44140625" customWidth="1"/>
+    <col min="43" max="43" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
       <c r="P2" s="15" t="s">
         <v>35</v>
       </c>
@@ -629,312 +720,544 @@
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-    </row>
-    <row r="4" spans="1:28" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-    </row>
-    <row r="5" spans="1:28" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AD4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AD5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="AI5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-    </row>
-    <row r="6" spans="1:28" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-    </row>
-    <row r="7" spans="1:28" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AD6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ6" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="13"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-    </row>
-    <row r="8" spans="1:28" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="12"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AD7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ7" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="13"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="12"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="12"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -967,305 +1290,305 @@
       <c r="AA12" s="15"/>
       <c r="AB12" s="15"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="5"/>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-    </row>
-    <row r="15" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+    </row>
+    <row r="15" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>30</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-    </row>
-    <row r="16" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+    </row>
+    <row r="16" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="9" t="s">
         <v>31</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
     </row>
     <row r="17" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="13"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
+      <c r="J17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="12"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="13"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="12"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
@@ -1302,303 +1625,303 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="5"/>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="7" t="s">
         <v>28</v>
       </c>
       <c r="M23" s="5"/>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
+      <c r="N24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="9" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
     </row>
     <row r="26" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="9" t="s">
         <v>31</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
     </row>
     <row r="27" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="13"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
+      <c r="J27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="12"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="13"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="13"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="12"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
@@ -1635,306 +1958,309 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="7" t="s">
         <v>28</v>
       </c>
       <c r="M33" s="5"/>
-      <c r="N33" s="8" t="s">
+      <c r="N33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="8" t="s">
         <v>1</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
+      <c r="N34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
     </row>
     <row r="35" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="9" t="s">
         <v>30</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="10" t="s">
+      <c r="N35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
     </row>
     <row r="36" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="9" t="s">
         <v>31</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N36" s="10" t="s">
+      <c r="N36" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
     </row>
     <row r="37" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="13"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
+      <c r="J37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="12"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="13"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="14"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="5"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="13"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="12"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="AD2:AQ2"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AN5:AN6"/>
     <mergeCell ref="P22:AB22"/>
     <mergeCell ref="P23:AB28"/>
     <mergeCell ref="P32:AB32"/>

--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Informática\Horario - Informática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9127C338-7423-4B6B-BCBD-FE04FBD66CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EEE704-3854-4B27-A374-C38CBC20DE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="62">
   <si>
     <t>Lunes</t>
   </si>
@@ -166,6 +166,51 @@
   </si>
   <si>
     <t>Repaso de Cálculo y Álgebra</t>
+  </si>
+  <si>
+    <t>En esta segunda semana, pasaron bastantes cosas que hicieron replantear mi horario o hacer cambios de último minuto. El lunes transcurrió con relativa normalidad, teniendo en cuenta que los espacios destinados al estudio se tomaron para preparar un parcial que tenia en esa misma semana. El martes, sin embargo, el profesor en la clase nos dio una recomendación para ser más eficientes en la administración de nuestro tiempo, por lo cual reduje el tiempo que normalmente me llevaría hacer algunas actividades, para desafiarme a hacerlas con la misma efectividad. Por lo anterior, los siguientes días reduje el tiempo de algunas actividades para hacer de mi día a día más productivo. Este fin de semana, lo dediqué a estudiar en su mayoría los parciales que tengo programados para la siguiente semana; por consiguiente tuve que modificar también mi horario de los siguientes días.</t>
+  </si>
+  <si>
+    <t>Estudiar para el parcial de Álgebra</t>
+  </si>
+  <si>
+    <t>10:00 - 11:00 pm</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00 pm</t>
+  </si>
+  <si>
+    <t>Práctica de Lab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudiar para el parcial de fisica </t>
+  </si>
+  <si>
+    <t>Estudiar para el parcial de cálculo</t>
+  </si>
+  <si>
+    <t>Se hicieron modificaciones en la segunda semana para ajustar los tiempos a los parciales que se programaron (26/02/2023).</t>
+  </si>
+  <si>
+    <t>Taller de cálculo de la universidad</t>
+  </si>
+  <si>
+    <t>6:00 - 8:00 pm</t>
+  </si>
+  <si>
+    <t>Estudiar para el parcial de Física</t>
+  </si>
+  <si>
+    <t>Estudiar para el quiz de Física</t>
+  </si>
+  <si>
+    <t>Estudiar para el parcial de Cálculo</t>
+  </si>
+  <si>
+    <t>8:00 - 10:00 pm</t>
+  </si>
+  <si>
+    <t>Último repaso para los parciales de Cálculo y Física</t>
   </si>
 </sst>
 </file>
@@ -301,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,23 +382,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -367,8 +400,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AQ38"/>
+  <dimension ref="A2:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN35" sqref="AN35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,9 +725,9 @@
     <col min="32" max="32" width="14.6640625" customWidth="1"/>
     <col min="33" max="33" width="15.5546875" customWidth="1"/>
     <col min="34" max="34" width="14.77734375" customWidth="1"/>
-    <col min="35" max="35" width="13.5546875" customWidth="1"/>
+    <col min="35" max="35" width="17.21875" customWidth="1"/>
     <col min="36" max="36" width="15.21875" customWidth="1"/>
-    <col min="37" max="37" width="13.5546875" customWidth="1"/>
+    <col min="37" max="37" width="18.33203125" customWidth="1"/>
     <col min="38" max="38" width="14.109375" customWidth="1"/>
     <col min="39" max="39" width="13.6640625" customWidth="1"/>
     <col min="40" max="40" width="15.33203125" customWidth="1"/>
@@ -689,53 +737,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="P2" s="15" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="P2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AD2" s="17" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AD2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -766,21 +814,21 @@
       <c r="N3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="6" t="s">
         <v>0</v>
@@ -853,19 +901,19 @@
       <c r="N4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
       <c r="AD4" s="3" t="s">
         <v>5</v>
       </c>
@@ -952,19 +1000,19 @@
       <c r="N5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
       <c r="AD5" s="3" t="s">
         <v>39</v>
       </c>
@@ -995,10 +1043,10 @@
       <c r="AM5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AN5" s="23" t="s">
+      <c r="AN5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="21" t="s">
+      <c r="AO5" s="17" t="s">
         <v>31</v>
       </c>
       <c r="AP5" s="3" t="s">
@@ -1051,19 +1099,19 @@
       <c r="N6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
       <c r="AD6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1142,8 @@
       <c r="AM6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="22"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="18"/>
       <c r="AP6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1138,19 +1186,19 @@
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
       <c r="N7" s="12"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
       <c r="AD7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1184,13 +1232,13 @@
       <c r="AN7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AO7" s="25" t="s">
+      <c r="AO7" s="15" t="s">
         <v>43</v>
       </c>
       <c r="AP7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AQ7" s="25" t="s">
+      <c r="AQ7" s="15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1217,19 +1265,19 @@
       <c r="L8" s="12"/>
       <c r="M8" s="14"/>
       <c r="N8" s="12"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="3" t="s">
@@ -1258,39 +1306,55 @@
       <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="P12" s="15" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="P12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AD12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="24"/>
+    </row>
+    <row r="13" spans="1:43" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>0</v>
@@ -1319,21 +1383,51 @@
       <c r="N13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="P13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1376,19 +1470,61 @@
       <c r="N14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AD14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ14" s="8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1433,19 +1569,61 @@
       <c r="N15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AD15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ15" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1490,21 +1668,63 @@
       <c r="N16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-    </row>
-    <row r="17" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AD16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ16" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1539,21 +1759,55 @@
       <c r="L17" s="12"/>
       <c r="M17" s="14"/>
       <c r="N17" s="12"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AD17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="12"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="12"/>
       <c r="C18" s="3" t="s">
@@ -1576,54 +1830,96 @@
       <c r="L18" s="12"/>
       <c r="M18" s="14"/>
       <c r="N18" s="12"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="12"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="P22" s="15" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="P22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AD22" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>0</v>
@@ -1652,21 +1948,51 @@
       <c r="N23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P23" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1709,21 +2035,63 @@
       <c r="N24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-    </row>
-    <row r="25" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AD24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ24" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1766,21 +2134,63 @@
       <c r="N25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-    </row>
-    <row r="26" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AD25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ25" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -1823,21 +2233,63 @@
       <c r="N26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-    </row>
-    <row r="27" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AD26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ26" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1872,21 +2324,55 @@
       <c r="L27" s="12"/>
       <c r="M27" s="14"/>
       <c r="N27" s="12"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AD27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="12"/>
+    </row>
+    <row r="28" spans="1:43" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="12"/>
       <c r="C28" s="3" t="s">
@@ -1909,370 +2395,426 @@
       <c r="L28" s="12"/>
       <c r="M28" s="14"/>
       <c r="N28" s="12"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AD28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="12"/>
+    </row>
+    <row r="29" spans="1:43" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="14"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="14"/>
+      <c r="AQ29" s="12"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
         <v>0</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="P32" s="15" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="P33" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="7" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="7" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="7" t="s">
+      <c r="G34" s="5"/>
+      <c r="H34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="7" t="s">
+      <c r="I34" s="5"/>
+      <c r="J34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="7" t="s">
+      <c r="K34" s="5"/>
+      <c r="L34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="7" t="s">
+      <c r="M34" s="5"/>
+      <c r="N34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M34" s="3" t="s">
+      <c r="L35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-    </row>
-    <row r="35" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="N35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+    </row>
+    <row r="36" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="9" t="s">
+      <c r="K36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="9" t="s">
+      <c r="M36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-    </row>
-    <row r="36" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="10" t="s">
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+    </row>
+    <row r="37" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="E37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" s="8" t="s">
+      <c r="I37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36" s="9" t="s">
+      <c r="K37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N36" s="9" t="s">
+      <c r="M37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-    </row>
-    <row r="37" spans="1:28" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+    </row>
+    <row r="38" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="C38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="8" t="s">
+      <c r="E38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="12"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="13"/>
+      <c r="I38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="K38" s="14"/>
       <c r="L38" s="12"/>
       <c r="M38" s="14"/>
       <c r="N38" s="12"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="12"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="P33:AB33"/>
+    <mergeCell ref="P34:AB39"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="P2:AB2"/>
+    <mergeCell ref="P3:AB8"/>
+    <mergeCell ref="P12:AB12"/>
+    <mergeCell ref="P13:AB18"/>
     <mergeCell ref="AD2:AQ2"/>
     <mergeCell ref="AO5:AO6"/>
     <mergeCell ref="AN5:AN6"/>
     <mergeCell ref="P22:AB22"/>
     <mergeCell ref="P23:AB28"/>
-    <mergeCell ref="P32:AB32"/>
-    <mergeCell ref="P33:AB38"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A32:N32"/>
-    <mergeCell ref="P2:AB2"/>
-    <mergeCell ref="P3:AB8"/>
-    <mergeCell ref="P12:AB12"/>
-    <mergeCell ref="P13:AB18"/>
+    <mergeCell ref="AD12:AQ12"/>
+    <mergeCell ref="AD22:AQ22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Informática\Horario - Informática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EEE704-3854-4B27-A374-C38CBC20DE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACD2D40-EBEA-4203-9504-29349CEBDBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,9 +189,6 @@
     <t>Estudiar para el parcial de cálculo</t>
   </si>
   <si>
-    <t>Se hicieron modificaciones en la segunda semana para ajustar los tiempos a los parciales que se programaron (26/02/2023).</t>
-  </si>
-  <si>
     <t>Taller de cálculo de la universidad</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Último repaso para los parciales de Cálculo y Física</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se hicieron modificaciones en la segunda semana para ajustar los tiempos a los parciales que se programaron (26/02/2023). La semana transcurrió con relativa normalidad y los horarios propuestos fueron tal como se planearon. (07/03/2023) </t>
   </si>
 </sst>
 </file>
@@ -385,8 +385,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -400,23 +415,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN35" sqref="AN35"/>
+    <sheetView tabSelected="1" topLeftCell="H17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,53 +737,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="P2" s="21" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="P2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AD2" s="16" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AD2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -814,21 +814,21 @@
       <c r="N3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="6" t="s">
         <v>0</v>
@@ -901,19 +901,19 @@
       <c r="N4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
       <c r="AD4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1000,19 +1000,19 @@
       <c r="N5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
       <c r="AD5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1043,10 +1043,10 @@
       <c r="AM5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AN5" s="19" t="s">
+      <c r="AN5" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="17" t="s">
+      <c r="AO5" s="22" t="s">
         <v>31</v>
       </c>
       <c r="AP5" s="3" t="s">
@@ -1099,19 +1099,19 @@
       <c r="N6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
       <c r="AD6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1142,8 +1142,8 @@
       <c r="AM6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="18"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="23"/>
       <c r="AP6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1186,19 +1186,19 @@
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
       <c r="N7" s="12"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
       <c r="AD7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1265,19 +1265,19 @@
       <c r="L8" s="12"/>
       <c r="M8" s="14"/>
       <c r="N8" s="12"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="3" t="s">
@@ -1306,53 +1306,53 @@
       <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="P12" s="21" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="P12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AD12" s="23" t="s">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AD12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="24"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
     </row>
     <row r="13" spans="1:43" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
@@ -1383,21 +1383,21 @@
       <c r="N13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="6" t="s">
         <v>0</v>
@@ -1470,19 +1470,19 @@
       <c r="N14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
       <c r="AD14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1569,19 +1569,19 @@
       <c r="N15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
       <c r="AD15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1668,19 +1668,19 @@
       <c r="N16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
       <c r="AD16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1759,19 +1759,19 @@
       <c r="L17" s="12"/>
       <c r="M17" s="14"/>
       <c r="N17" s="12"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
       <c r="AD17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1830,19 +1830,19 @@
       <c r="L18" s="12"/>
       <c r="M18" s="14"/>
       <c r="N18" s="12"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="3" t="s">
@@ -1871,53 +1871,53 @@
       <c r="AQ18" s="12"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="P22" s="21" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="P22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AD22" s="23" t="s">
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AD22" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="24"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
@@ -1949,7 +1949,7 @@
         <v>34</v>
       </c>
       <c r="P23" s="26" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Q23" s="26"/>
       <c r="R23" s="26"/>
@@ -2341,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="AE27" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF27" s="4" t="s">
         <v>3</v>
@@ -2409,11 +2409,11 @@
       <c r="AA28" s="26"/>
       <c r="AB28" s="26"/>
       <c r="AD28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AE28" s="15" t="s">
-        <v>57</v>
-      </c>
       <c r="AF28" s="3" t="s">
         <v>7</v>
       </c>
@@ -2421,10 +2421,10 @@
         <v>1</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI28" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AJ28" s="3" t="s">
         <v>22</v>
@@ -2443,18 +2443,18 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="15"/>
       <c r="AF29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG29" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH29" s="5"/>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK29" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="AK29" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="AL29" s="5"/>
       <c r="AM29" s="13"/>
@@ -2464,37 +2464,37 @@
       <c r="AQ29" s="12"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="19">
         <v>0</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="P33" s="21" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="P33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
@@ -2525,19 +2525,19 @@
       <c r="N34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
@@ -2582,19 +2582,19 @@
       <c r="N35" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
     </row>
     <row r="36" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
@@ -2639,19 +2639,19 @@
       <c r="N36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
     </row>
     <row r="37" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -2696,19 +2696,19 @@
       <c r="N37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
     </row>
     <row r="38" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
@@ -2745,19 +2745,19 @@
       <c r="L38" s="12"/>
       <c r="M38" s="14"/>
       <c r="N38" s="12"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
@@ -2782,22 +2782,29 @@
       <c r="L39" s="12"/>
       <c r="M39" s="14"/>
       <c r="N39" s="12"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AD2:AQ2"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="P22:AB22"/>
+    <mergeCell ref="P23:AB28"/>
+    <mergeCell ref="AD12:AQ12"/>
+    <mergeCell ref="AD22:AQ22"/>
     <mergeCell ref="P33:AB33"/>
     <mergeCell ref="P34:AB39"/>
     <mergeCell ref="A2:N2"/>
@@ -2808,13 +2815,6 @@
     <mergeCell ref="P3:AB8"/>
     <mergeCell ref="P12:AB12"/>
     <mergeCell ref="P13:AB18"/>
-    <mergeCell ref="AD2:AQ2"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="P22:AB22"/>
-    <mergeCell ref="P23:AB28"/>
-    <mergeCell ref="AD12:AQ12"/>
-    <mergeCell ref="AD22:AQ22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
